--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H3" t="n">
         <v>4.2</v>
@@ -953,16 +953,16 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1153,22 +1153,22 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
@@ -1183,7 +1183,7 @@
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1192,19 +1192,19 @@
         <v>1250</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
@@ -1213,13 +1213,13 @@
         <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1240,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
         <v>34</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H5" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K5" t="n">
         <v>2.6</v>
       </c>
       <c r="L5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1323,10 +1323,10 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1335,13 +1335,13 @@
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
         <v>5</v>
@@ -1350,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
@@ -1359,46 +1359,46 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AL5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AM5" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AN5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>13</v>
@@ -1407,13 +1407,13 @@
         <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
         <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
         <v>101</v>
@@ -1422,10 +1422,10 @@
         <v>13</v>
       </c>
       <c r="AX5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AY5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ5" t="n">
         <v>351</v>
@@ -1520,7 +1520,7 @@
         <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
@@ -1675,10 +1675,10 @@
         <v>3.6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1687,22 +1687,22 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="S7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W7" t="n">
         <v>7.5</v>
@@ -1711,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
         <v>23</v>
@@ -1723,10 +1723,10 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1750,19 +1750,19 @@
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
         <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
@@ -1789,7 +1789,7 @@
         <v>17</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
         <v>51</v>
@@ -1854,7 +1854,7 @@
         <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1875,7 +1875,7 @@
         <v>2.08</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
         <v>3.25</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J9" t="n">
         <v>3.85</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -2051,34 +2051,34 @@
         <v>3.65</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="S9" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>3.26</v>
+        <v>3.32</v>
       </c>
       <c r="U9" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
         <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA9" t="n">
         <v>28</v>
@@ -2087,37 +2087,37 @@
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG9" t="n">
         <v>250</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AI9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.25</v>
       </c>
       <c r="AK9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AM9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AN9" t="n">
         <v>5.7</v>
@@ -2126,7 +2126,7 @@
         <v>18.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ9" t="n">
         <v>90</v>
@@ -2138,7 +2138,7 @@
         <v>200</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="AU9" t="n">
         <v>6.5</v>
@@ -2147,22 +2147,22 @@
         <v>45</v>
       </c>
       <c r="AW9" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AX9" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AY9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AZ9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB9" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2221,10 +2221,10 @@
         <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
         <v>1.3</v>
@@ -2233,13 +2233,13 @@
         <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S10" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
         <v>2.75</v>
@@ -2421,10 +2421,10 @@
         <v>1.75</v>
       </c>
       <c r="S11" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
         <v>1.91</v>
@@ -2749,28 +2749,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
@@ -2809,7 +2809,7 @@
         <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
         <v>26</v>
@@ -2830,19 +2830,19 @@
         <v>500</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
         <v>12</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM13" t="n">
         <v>34</v>
@@ -2949,10 +2949,10 @@
         <v>4.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
@@ -3331,10 +3331,10 @@
         <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U16" t="n">
         <v>2.1</v>
@@ -3513,7 +3513,7 @@
         <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T17" t="n">
         <v>2.25</v>
@@ -3695,7 +3695,7 @@
         <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T18" t="n">
         <v>2.2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2wzE4jYb</t>
+          <t>pGU37DCT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,41 +728,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -771,16 +771,16 @@
         <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -789,76 +789,76 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA2" t="n">
         <v>15</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>17</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="n">
         <v>7.5</v>
       </c>
-      <c r="AD2" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI2" t="n">
         <v>19</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AJ2" t="n">
         <v>67</v>
       </c>
-      <c r="AG2" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>15</v>
-      </c>
       <c r="AK2" t="n">
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>201</v>
@@ -867,40 +867,40 @@
         <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fRow7SJA</t>
+          <t>v3a39ZsH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,152 +910,152 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="I3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N3" t="n">
+        <v>19</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>9</v>
+      </c>
+      <c r="X3" t="n">
         <v>7</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
         <v>7.5</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>9</v>
-      </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
         <v>34</v>
       </c>
-      <c r="AC3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="n">
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="AK3" t="n">
         <v>81</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1067,22 +1067,22 @@
         <v>201</v>
       </c>
       <c r="BA3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6PHbTi7C</t>
+          <t>2wzE4jYb</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,50 +1092,50 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lok. Sofia</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
         <v>2.75</v>
@@ -1153,22 +1153,22 @@
         <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
@@ -1177,49 +1177,49 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>1250</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>501</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1240,31 +1240,31 @@
         <v>6</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC4" t="n">
         <v>126</v>
       </c>
-      <c r="BB4" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>baEjVDx0</t>
+          <t>fRow7SJA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="H5" t="n">
-        <v>6.25</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="K5" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG5" t="n">
         <v>13</v>
       </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM5" t="n">
         <v>201</v>
       </c>
-      <c r="AH5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>151</v>
-      </c>
       <c r="AN5" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="AO5" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA5" t="n">
         <v>251</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>301</v>
       </c>
       <c r="BB5" t="n">
         <v>501</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hSxBeE4l</t>
+          <t>6PHbTi7C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,95 +1456,95 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Lok. Sofia</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>1.96</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
@@ -1553,46 +1553,46 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
         <v>201</v>
       </c>
-      <c r="AH6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>351</v>
-      </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1601,34 +1601,34 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8lbdzPhT</t>
+          <t>baEjVDx0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>1.15</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>1.58</v>
       </c>
       <c r="K7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>13</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R7" t="n">
         <v>2.05</v>
       </c>
-      <c r="L7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>2.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.87</v>
+        <v>1.4</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="n">
         <v>11</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP7" t="n">
         <v>23</v>
       </c>
-      <c r="AA7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AQ7" t="n">
         <v>13</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC7" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>vXlSU2Gj</t>
+          <t>hSxBeE4l</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,170 +1820,170 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
       <c r="L8" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y8" t="n">
         <v>13</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
         <v>4</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>12</v>
-      </c>
-      <c r="X8" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AX8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY8" t="n">
         <v>29</v>
       </c>
-      <c r="AC8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>19</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC8" t="n">
         <v>126</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>451</v>
       </c>
       <c r="BD8" t="n">
         <v>126</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8QmVgVD5</t>
+          <t>8lbdzPhT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Correcaminos</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.6</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.4</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>11.8</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>3.32</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.52</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>2.22</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
-        <v>13.5</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.3</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>250</v>
+        <v>8.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.25</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>19.5</v>
+        <v>301</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.7</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.05</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>9.25</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KlcfeRjd</t>
+          <t>vXlSU2Gj</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Club Tijuana</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>13</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T10" t="n">
         <v>3.25</v>
       </c>
-      <c r="I10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>29</v>
       </c>
       <c r="AC10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
         <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>301</v>
       </c>
       <c r="AH10" t="n">
         <v>12</v>
       </c>
       <c r="AI10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
         <v>23</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
       <c r="AM10" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AeuJP3G5</t>
+          <t>8QmVgVD5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Correcaminos</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I11" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="J11" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="L11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>13.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W11" t="n">
+        <v>15</v>
+      </c>
+      <c r="X11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT11" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W11" t="n">
-        <v>11</v>
-      </c>
-      <c r="X11" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y11" t="n">
+      <c r="AU11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AY11" t="n">
         <v>15</v>
       </c>
-      <c r="Z11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>63r2ToHt</t>
+          <t>KlcfeRjd</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,65 +2548,65 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="K12" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
         <v>1.83</v>
@@ -2615,76 +2615,76 @@
         <v>1.83</v>
       </c>
       <c r="W12" t="n">
+        <v>7</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA12" t="n">
         <v>17</v>
       </c>
-      <c r="X12" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>41</v>
-      </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>600</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="AK12" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP12" t="n">
         <v>23</v>
       </c>
-      <c r="AN12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="AU12" t="n">
         <v>8.5</v>
@@ -2693,34 +2693,34 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2VyBRPog</t>
+          <t>AeuJP3G5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,154 +2740,154 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>1.82</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA13" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>500</v>
+        <v>6.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AI13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK13" t="n">
         <v>17</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP13" t="n">
         <v>34</v>
       </c>
-      <c r="AL13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM13" t="n">
+      <c r="AQ13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>34</v>
       </c>
-      <c r="AN13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>51</v>
-      </c>
       <c r="BA13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
         <v>151</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>67jtezzI</t>
+          <t>63r2ToHt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,167 +2912,167 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>6.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.75</v>
+        <v>1.41</v>
       </c>
       <c r="J14" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>1.91</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
         <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="S14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
+        <v>19</v>
+      </c>
+      <c r="X14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD14" t="n">
         <v>9</v>
       </c>
-      <c r="X14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y14" t="n">
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AH14" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="n">
+      <c r="AI14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM14" t="n">
         <v>151</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AN14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY14" t="n">
         <v>17</v>
       </c>
-      <c r="AI14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS14" t="n">
+      <c r="AZ14" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB14" t="n">
         <v>101</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>151</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CpD7BeKb</t>
+          <t>2VyBRPog</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,92 +3094,92 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
         <v>2.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8</v>
+      </c>
+      <c r="X15" t="n">
         <v>11</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
         <v>10</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
@@ -3191,31 +3191,31 @@
         <v>41</v>
       </c>
       <c r="AG15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
         <v>151</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
       </c>
       <c r="AN15" t="n">
         <v>4.33</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
@@ -3227,22 +3227,22 @@
         <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>26</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tjlFtyLO</t>
+          <t>67jtezzI</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3286,157 +3286,157 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="J16" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>2.37</v>
       </c>
       <c r="L16" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="T16" t="n">
-        <v>2.37</v>
+        <v>3.4</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="V16" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y16" t="n">
         <v>8.5</v>
       </c>
-      <c r="Y16" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
         <v>17</v>
       </c>
-      <c r="AA16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB16" t="n">
+      <c r="AH16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK16" t="n">
         <v>34</v>
       </c>
-      <c r="AC16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW16" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF16" t="n">
+      <c r="AX16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>67</v>
       </c>
-      <c r="AG16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ16" t="n">
+      <c r="BA16" t="n">
         <v>81</v>
       </c>
-      <c r="BA16" t="n">
-        <v>126</v>
-      </c>
       <c r="BB16" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>KAGF9ZlB</t>
+          <t>CpD7BeKb</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3468,157 +3468,157 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
       </c>
       <c r="K17" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.6</v>
+        <v>1.93</v>
       </c>
       <c r="R17" t="n">
-        <v>1.48</v>
+        <v>1.93</v>
       </c>
       <c r="S17" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="T17" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
         <v>201</v>
       </c>
-      <c r="AH17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>51</v>
-      </c>
       <c r="AN17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
         <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
       </c>
       <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>67</v>
       </c>
-      <c r="AS17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV17" t="n">
+      <c r="BA17" t="n">
         <v>81</v>
       </c>
-      <c r="AW17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA17" t="n">
+      <c r="BB17" t="n">
         <v>151</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>500</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>vaTmiRYq</t>
+          <t>tjlFtyLO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,103 +3650,103 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K18" t="n">
         <v>2</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.91</v>
-      </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.53</v>
       </c>
-      <c r="P18" t="n">
+      <c r="T18" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q18" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.2</v>
-      </c>
       <c r="U18" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="W18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z18" t="n">
         <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>9.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AK18" t="n">
         <v>41</v>
@@ -3755,57 +3755,421 @@
         <v>41</v>
       </c>
       <c r="AM18" t="n">
-        <v>51</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
         <v>12</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
         <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="AU18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
         <v>5.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB18" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
       </c>
       <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>KAGF9ZlB</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>vaTmiRYq</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD20" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,17 +718,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pGU37DCT</t>
+          <t>rHF0kEjo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,157 +738,157 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.53</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.5</v>
-      </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L2" t="n">
         <v>2.1</v>
       </c>
-      <c r="L2" t="n">
-        <v>6.5</v>
-      </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>15</v>
+      </c>
+      <c r="X2" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU2" t="n">
         <v>8</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX2" t="n">
         <v>8</v>
       </c>
-      <c r="AD2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AY2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>23</v>
       </c>
-      <c r="AF2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>151</v>
-      </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>
@@ -900,17 +900,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>v3a39ZsH</t>
+          <t>6k1eBeD4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,73 +920,73 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Nacional Potosi</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Guabira</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="H3" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="K3" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="L3" t="n">
+        <v>8</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N3" t="n">
-        <v>19</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>9</v>
-      </c>
-      <c r="X3" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
@@ -995,58 +995,58 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL3" t="n">
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>15</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>13</v>
-      </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU3" t="n">
         <v>9.5</v>
@@ -1055,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1067,7 +1067,7 @@
         <v>201</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>301</v>
@@ -1082,12 +1082,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2wzE4jYb</t>
+          <t>GzR3hT4H</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1097,184 +1097,184 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Brusque</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.79</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.44</v>
       </c>
-      <c r="P4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
         <v>6</v>
       </c>
-      <c r="X4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX4" t="n">
         <v>23</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>26</v>
-      </c>
       <c r="AY4" t="n">
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fRow7SJA</t>
+          <t>C2dY7844</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,37 +1284,37 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.41</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1323,118 +1323,118 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AE5" t="n">
         <v>15</v>
       </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP5" t="n">
         <v>26</v>
       </c>
-      <c r="AF5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ5" t="n">
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
         <v>81</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
         <v>81</v>
       </c>
-      <c r="AW5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ5" t="n">
+      <c r="BB5" t="n">
         <v>201</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>501</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1446,90 +1446,90 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6PHbTi7C</t>
+          <t>fRP7imKN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lok. Sofia</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
         <v>8</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
         <v>17</v>
@@ -1538,49 +1538,49 @@
         <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
         <v>9</v>
       </c>
-      <c r="AH6" t="n">
-        <v>19</v>
-      </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>1250</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>41</v>
@@ -1589,454 +1589,454 @@
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC6" t="n">
         <v>81</v>
       </c>
-      <c r="BA6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>baEjVDx0</t>
+          <t>YBcU8lkb</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Operario</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.15</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD7" t="n">
         <v>6</v>
       </c>
-      <c r="I7" t="n">
+      <c r="AE7" t="n">
         <v>19</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>13</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
         <v>5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AO7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP7" t="n">
         <v>34</v>
       </c>
-      <c r="AF7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
         <v>81</v>
       </c>
-      <c r="AI7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>351</v>
-      </c>
-      <c r="BA7" t="n">
+      <c r="BB7" t="n">
         <v>301</v>
       </c>
-      <c r="BB7" t="n">
-        <v>501</v>
-      </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hSxBeE4l</t>
+          <t>xpQsXZ7m</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Lok. Plovdiv</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.2</v>
-      </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>2.87</v>
       </c>
       <c r="K8" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.5</v>
       </c>
-      <c r="P8" t="n">
+      <c r="T8" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
         <v>8</v>
-      </c>
-      <c r="X8" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>6.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>301</v>
       </c>
       <c r="AH8" t="n">
         <v>9.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
         <v>201</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AT8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
         <v>5</v>
       </c>
-      <c r="AO8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4</v>
-      </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
         <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
         <v>251</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8lbdzPhT</t>
+          <t>bLBozsEO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>Blackburn</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>West Brom</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2048,13 +2048,13 @@
         <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2063,22 +2063,22 @@
         <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
         <v>21</v>
@@ -2087,10 +2087,10 @@
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2099,31 +2099,31 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.5</v>
+        <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
       </c>
       <c r="AL9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM9" t="n">
         <v>34</v>
       </c>
-      <c r="AM9" t="n">
-        <v>301</v>
-      </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
@@ -2132,7 +2132,7 @@
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
         <v>201</v>
@@ -2147,13 +2147,13 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>51</v>
@@ -2165,96 +2165,96 @@
         <v>201</v>
       </c>
       <c r="BC9" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vXlSU2Gj</t>
+          <t>jypdPPa6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Hull</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="J10" t="n">
         <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -2263,43 +2263,43 @@
         <v>34</v>
       </c>
       <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK10" t="n">
         <v>23</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AL10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM10" t="n">
         <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>151</v>
       </c>
       <c r="AN10" t="n">
         <v>5</v>
@@ -2320,7 +2320,7 @@
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU10" t="n">
         <v>7.5</v>
@@ -2329,10 +2329,10 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
@@ -2344,374 +2344,374 @@
         <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8QmVgVD5</t>
+          <t>2Zydfpat</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Correcaminos</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="n">
         <v>3.5</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.4</v>
-      </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>13.3</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="S11" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>3.42</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO11" t="n">
         <v>15</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AP11" t="n">
         <v>23</v>
       </c>
-      <c r="Y11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC11" t="n">
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX11" t="n">
         <v>15</v>
       </c>
-      <c r="AD11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KlcfeRjd</t>
+          <t>6RYCj2b5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Plymouth</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.91</v>
       </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="W12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT12" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
         <v>7</v>
       </c>
-      <c r="X12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB12" t="n">
+      <c r="AX12" t="n">
         <v>29</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>21</v>
       </c>
       <c r="AY12" t="n">
         <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA12" t="n">
         <v>101</v>
       </c>
       <c r="BB12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2720,251 +2720,251 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AeuJP3G5</t>
+          <t>Aau4hOTh</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>1.87</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>1.82</v>
+        <v>3.75</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
         <v>11</v>
       </c>
-      <c r="X13" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y13" t="n">
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
         <v>15</v>
       </c>
-      <c r="Z13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
-      </c>
       <c r="AF13" t="n">
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>6.5</v>
+        <v>251</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="n">
         <v>29</v>
       </c>
       <c r="AM13" t="n">
-        <v>800</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
         <v>6</v>
       </c>
-      <c r="AO13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ13" t="n">
+      <c r="AX13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA13" t="n">
         <v>81</v>
       </c>
-      <c r="AR13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>51</v>
-      </c>
       <c r="BB13" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC13" t="n">
         <v>151</v>
       </c>
-      <c r="BC13" t="n">
-        <v>81</v>
-      </c>
       <c r="BD13" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>63r2ToHt</t>
+          <t>I9fFNr8T</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Parnu JK Vaprus</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Paide</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.25</v>
+        <v>6.1</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="I14" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="J14" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>14.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
         <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="R14" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="S14" t="n">
         <v>1.29</v>
@@ -2973,652 +2973,652 @@
         <v>3.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W14" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AA14" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC14" t="n">
         <v>15</v>
       </c>
       <c r="AD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL14" t="n">
         <v>9</v>
       </c>
-      <c r="AE14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>23</v>
-      </c>
       <c r="AM14" t="n">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AO14" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AP14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ14" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AR14" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="AX14" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="AY14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="BB14" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="BC14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2VyBRPog</t>
+          <t>2sWoIMVj</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Narva</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.2</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT15" t="n">
         <v>3.2</v>
       </c>
-      <c r="J15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>10</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>8</v>
-      </c>
-      <c r="X15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.75</v>
-      </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>4.45</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>11.25</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BD15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>67jtezzI</t>
+          <t>OjXsJ2Gp</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Kalju</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="J16" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="K16" t="n">
-        <v>2.37</v>
+        <v>2.15</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="S16" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T16" t="n">
-        <v>3.4</v>
+        <v>3.26</v>
       </c>
       <c r="U16" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V16" t="n">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="W16" t="n">
         <v>9</v>
       </c>
       <c r="X16" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AA16" t="n">
         <v>13</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AC16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>9.25</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="AH16" t="n">
-        <v>26</v>
+        <v>9.75</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>51</v>
+        <v>8.75</v>
       </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AM16" t="n">
-        <v>151</v>
+        <v>19.5</v>
       </c>
       <c r="AN16" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AR16" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AS16" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="AV16" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AW16" t="n">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>500</v>
       </c>
       <c r="BD16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CpD7BeKb</t>
+          <t>0f5Qa4s2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Jaro</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="I17" t="n">
         <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>2.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="T17" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y17" t="n">
         <v>10</v>
       </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE17" t="n">
         <v>17</v>
       </c>
-      <c r="AB17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AF17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>13</v>
       </c>
-      <c r="AF17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>41</v>
-      </c>
       <c r="AK17" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="n">
         <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="n">
         <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX17" t="n">
         <v>21</v>
       </c>
-      <c r="AQ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>19</v>
-      </c>
       <c r="AY17" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3630,180 +3630,180 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>tjlFtyLO</t>
+          <t>0Cb1WyIt</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Inter Turku</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
         <v>4</v>
       </c>
-      <c r="J18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>8</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q18" t="n">
-        <v>2.35</v>
+        <v>1.73</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>2.08</v>
       </c>
       <c r="S18" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="T18" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
-        <v>1.67</v>
+        <v>2.2</v>
       </c>
       <c r="W18" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO18" t="n">
         <v>17</v>
       </c>
-      <c r="AA18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>12</v>
-      </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR18" t="n">
         <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.37</v>
+        <v>3.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AY18" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB18" t="n">
         <v>126</v>
       </c>
-      <c r="BB18" t="n">
-        <v>301</v>
-      </c>
       <c r="BC18" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="BD18" t="n">
         <v>81</v>
@@ -3812,180 +3812,180 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KAGF9ZlB</t>
+          <t>dbYjCYWO</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>VPS</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Gnistan</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>1.95</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K19" t="n">
-        <v>1.92</v>
+        <v>2.25</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O19" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
-        <v>1.48</v>
+        <v>2.03</v>
       </c>
       <c r="S19" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="T19" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="V19" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="W19" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
         <v>17</v>
       </c>
       <c r="AA19" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB19" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA19" t="n">
         <v>81</v>
       </c>
-      <c r="AG19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA19" t="n">
+      <c r="BB19" t="n">
         <v>151</v>
       </c>
-      <c r="BB19" t="n">
-        <v>500</v>
-      </c>
       <c r="BC19" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD19" t="n">
         <v>81</v>
@@ -3994,183 +3994,4733 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vaTmiRYq</t>
+          <t>YkvcxZWI</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>24/10/2024</t>
+          <t>23/10/2024</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Alemannia Aachen</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>13</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R20" t="n">
         <v>2</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.44</v>
-      </c>
       <c r="S20" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="T20" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="U20" t="n">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA20" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>15</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>41</v>
-      </c>
       <c r="AK20" t="n">
         <v>41</v>
       </c>
       <c r="AL20" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AN20" t="n">
         <v>3.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AP20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>29</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>41</v>
-      </c>
       <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>81</v>
       </c>
-      <c r="AS20" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV20" t="n">
+      <c r="BA20" t="n">
         <v>81</v>
       </c>
-      <c r="AW20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>151</v>
-      </c>
       <c r="BB20" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
       </c>
       <c r="BD20" t="n">
         <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WQsttHXg</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Hannover II</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Arminia Bielefeld</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W21" t="n">
+        <v>13</v>
+      </c>
+      <c r="X21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EoHq0xPP</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>RW Essen</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Verl</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>12</v>
+      </c>
+      <c r="X22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Shykve26</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Wehen</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>SG Dynamo Dresden</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>17</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W23" t="n">
+        <v>15</v>
+      </c>
+      <c r="X23" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pU7FfGnm</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14:02</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GERMANY - 3. LIGA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Munich 1860</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>VfL Osnabruck</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>11</v>
+      </c>
+      <c r="X24" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>O4AK2CBH</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>JAPAN - J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Albirex Niigata</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Verdy</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>zuEO1WQN</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>JAPAN - J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Gamba Osaka</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Nagoya Grampus</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>lfAAIomc</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>JAPAN - J1 LEAGUE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Urawa Reds</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Kashiwa Reysol</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W27" t="n">
+        <v>8</v>
+      </c>
+      <c r="X27" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>451</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>tx7uv7g4</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Cruz Azul</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Juarez</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L28" t="n">
+        <v>8</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N28" t="n">
+        <v>21</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T28" t="n">
+        <v>4</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W28" t="n">
+        <v>9</v>
+      </c>
+      <c r="X28" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>nZ9mxoOG</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Monterrey</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>U.N.A.M.- Pumas</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N29" t="n">
+        <v>9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vNNN0Rfd</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MOROCCO - BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>COD Meknes</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Wydad</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W30" t="n">
+        <v>13</v>
+      </c>
+      <c r="X30" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>h6PF2mQq</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MOROCCO - BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>FUS Rabat</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Olympique de Safi</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>fV5AOUn3</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MOROCCO - BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Berkane</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Jeunesse Sportive Soualem</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>9</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>151</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sr4IM8HF</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>MOROCCO - BOTOLA PRO</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>IR Tanger</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Renaissance Zemamra</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W33" t="n">
+        <v>5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>65Ly84z2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>PERU - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>AD Tarma</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Union Comercio</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>15</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>12</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>23</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="T34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W34" t="n">
+        <v>10</v>
+      </c>
+      <c r="X34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>E7tcFnrS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PERU - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Cienciano</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Alianza Atl.</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>7</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X35" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CrptJUr3</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PERU - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Carlos Mannucci</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Cusco</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N36" t="n">
+        <v>15</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W36" t="n">
+        <v>10</v>
+      </c>
+      <c r="X36" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>OM3ocmMq</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>PERU - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>U. de Deportes</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>EXsrs05T</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>POLAND - EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N38" t="n">
+        <v>9</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>tl3qMzJ5</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>FC Porto B</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N39" t="n">
+        <v>10</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W39" t="n">
+        <v>7</v>
+      </c>
+      <c r="X39" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>06qkgE4U</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Cadiz CF</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X40" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>bsmYdd55</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>U1eH0v6t</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W42" t="n">
+        <v>8</v>
+      </c>
+      <c r="X42" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>GIJbDHkn</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N43" t="n">
+        <v>13</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W43" t="n">
+        <v>9</v>
+      </c>
+      <c r="X43" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>jJhlHOOk</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Portland Timbers</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N44" t="n">
+        <v>17</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W44" t="n">
+        <v>15</v>
+      </c>
+      <c r="X44" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>vw4ebel5</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>23/10/2024</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Tampa Bay</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Hartford Athletic</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W45" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="X45" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -777,10 +777,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -795,7 +795,7 @@
         <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
@@ -831,10 +831,10 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -849,7 +849,7 @@
         <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -876,7 +876,7 @@
         <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -747,55 +747,55 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
@@ -831,10 +831,10 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -843,13 +843,13 @@
         <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
         <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -864,7 +864,7 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -873,22 +873,22 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -747,55 +747,55 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.5</v>
       </c>
-      <c r="K2" t="n">
+      <c r="U2" t="n">
         <v>2.1</v>
       </c>
-      <c r="L2" t="n">
-        <v>5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
         <v>7.5</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
@@ -831,10 +831,10 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
@@ -843,13 +843,13 @@
         <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
         <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -864,7 +864,7 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -873,22 +873,22 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
         <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -756,7 +756,7 @@
         <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -789,16 +789,16 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -813,7 +813,7 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -822,7 +822,7 @@
         <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -756,7 +756,7 @@
         <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -765,10 +765,10 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -789,16 +789,16 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -813,16 +813,16 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
@@ -831,10 +831,10 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8lbdzPhT</t>
+          <t>baEjVDx0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>1.27</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T3" t="n">
         <v>3</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.5</v>
       </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP3" t="n">
         <v>21</v>
       </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM3" t="n">
+      <c r="AQ3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR3" t="n">
         <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vXlSU2Gj</t>
+          <t>8lbdzPhT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,121 +1102,121 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.1</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7</v>
+      </c>
+      <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
         <v>15</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W4" t="n">
-        <v>12</v>
-      </c>
-      <c r="X4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
         <v>26</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>51</v>
@@ -1225,39 +1225,221 @@
         <v>67</v>
       </c>
       <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD4" t="n">
         <v>126</v>
       </c>
-      <c r="AT4" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>vXlSU2Gj</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>00:05</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Club Tijuana</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Club America</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T5" t="n">
         <v>3.4</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="U5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W5" t="n">
+        <v>12</v>
+      </c>
+      <c r="X5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU5" t="n">
         <v>7</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV5" t="n">
         <v>41</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW5" t="n">
         <v>4.33</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX5" t="n">
         <v>11</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY5" t="n">
         <v>19</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ5" t="n">
         <v>34</v>
       </c>
-      <c r="BA4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB4" t="n">
+      <c r="BA5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB5" t="n">
         <v>101</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC5" t="n">
         <v>401</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD5" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -941,16 +941,16 @@
         <v>1.73</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -971,10 +971,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -986,16 +986,16 @@
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>11</v>
@@ -1010,25 +1010,25 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL3" t="n">
         <v>81</v>
       </c>
       <c r="AM3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO3" t="n">
         <v>6</v>
@@ -1043,7 +1043,7 @@
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
         <v>3</v>
@@ -1067,7 +1067,7 @@
         <v>301</v>
       </c>
       <c r="BA3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
         <v>1.73</v>
@@ -944,7 +944,7 @@
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -971,91 +971,91 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
       </c>
       <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE3" t="n">
         <v>34</v>
       </c>
-      <c r="AC3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>29</v>
-      </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM3" t="n">
         <v>81</v>
       </c>
-      <c r="AM3" t="n">
-        <v>67</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX3" t="n">
         <v>51</v>
@@ -1064,7 +1064,7 @@
         <v>51</v>
       </c>
       <c r="AZ3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BA3" t="n">
         <v>301</v>
@@ -1441,6 +1441,188 @@
       </c>
       <c r="BD5" t="n">
         <v>151</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AeuJP3G5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Al Orubah</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W6" t="n">
+        <v>11</v>
+      </c>
+      <c r="X6" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H3" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>1.73</v>
@@ -947,10 +947,10 @@
         <v>11</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -971,10 +971,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -983,10 +983,10 @@
         <v>5</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
@@ -998,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>34</v>
@@ -1010,13 +1010,13 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
         <v>151</v>
@@ -1025,7 +1025,7 @@
         <v>101</v>
       </c>
       <c r="AM3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN3" t="n">
         <v>3</v>
@@ -1052,10 +1052,10 @@
         <v>12</v>
       </c>
       <c r="AV3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="n">
         <v>51</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
@@ -1490,13 +1490,13 @@
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1523,10 +1523,10 @@
         <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
         <v>13</v>
@@ -1535,13 +1535,13 @@
         <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1559,16 +1559,16 @@
         <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK6" t="n">
         <v>17</v>
       </c>
       <c r="AL6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1586,7 +1586,7 @@
         <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H3" t="n">
         <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
         <v>1.73</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -971,19 +971,19 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>7</v>
@@ -1001,43 +1001,43 @@
         <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>151</v>
       </c>
       <c r="AL3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="n">
         <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1049,7 +1049,7 @@
         <v>3</v>
       </c>
       <c r="AU3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1064,10 +1064,10 @@
         <v>51</v>
       </c>
       <c r="AZ3" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA3" t="n">
         <v>351</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>301</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1517,37 +1517,37 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
         <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
@@ -1559,34 +1559,34 @@
         <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL6" t="n">
         <v>17</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>19</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="n">
         <v>350</v>
@@ -1601,16 +1601,16 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA6" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H3" t="n">
         <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>1.73</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
         <v>10</v>
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>11</v>
@@ -1010,13 +1010,13 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
         <v>151</v>
@@ -1031,13 +1031,13 @@
         <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1064,7 +1064,7 @@
         <v>51</v>
       </c>
       <c r="AZ3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BA3" t="n">
         <v>351</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J6" t="n">
         <v>4.33</v>
@@ -1577,13 +1577,13 @@
         <v>6</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
         <v>34</v>
       </c>
       <c r="AQ6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
         <v>101</v>
@@ -1601,7 +1601,7 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX6" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1625,6 +1625,370 @@
         <v>81</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>67jtezzI</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CpD7BeKb</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dep. La Coruna</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
         <v>3.75</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>67jtezzI</t>
+          <t>63r2ToHt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,170 +1638,170 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>1.62</v>
       </c>
       <c r="J7" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W7" t="n">
+        <v>21</v>
+      </c>
+      <c r="X7" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM7" t="n">
         <v>17</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W7" t="n">
-        <v>10</v>
-      </c>
-      <c r="X7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AN7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO7" t="n">
         <v>21</v>
       </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT7" t="n">
         <v>4</v>
       </c>
-      <c r="AO7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.5</v>
-      </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV7" t="n">
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>21</v>
       </c>
-      <c r="AY7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ7" t="n">
+      <c r="BA7" t="n">
+        <v>34</v>
+      </c>
+      <c r="BB7" t="n">
         <v>67</v>
       </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>126</v>
-      </c>
       <c r="BC7" t="n">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CpD7BeKb</t>
+          <t>2VyBRPog</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,164 +1820,164 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.6</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.83</v>
       </c>
-      <c r="R8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
+        <v>8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
         <v>9</v>
       </c>
-      <c r="X8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
         <v>151</v>
       </c>
       <c r="AH8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>11</v>
       </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
       <c r="AK8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
         <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
         <v>151</v>
@@ -1986,6 +1986,370 @@
         <v>81</v>
       </c>
       <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>67jtezzI</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>17</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CpD7BeKb</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dep. La Coruna</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>13</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD10" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="n">
         <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K7" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L7" t="n">
         <v>2.05</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>23</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>1.02</v>
       </c>
       <c r="O7" t="n">
         <v>1.1</v>
@@ -1693,10 +1693,10 @@
         <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U7" t="n">
         <v>1.44</v>
@@ -1714,13 +1714,13 @@
         <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA7" t="n">
         <v>29</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>23</v>
@@ -1741,7 +1741,7 @@
         <v>13</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>9</v>
@@ -1768,13 +1768,13 @@
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
         <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU7" t="n">
         <v>7</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
         <v>2.5</v>
@@ -2042,25 +2042,25 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
         <v>1.62</v>
@@ -2087,7 +2087,7 @@
         <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
         <v>8</v>
@@ -2108,7 +2108,7 @@
         <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2138,7 +2138,7 @@
         <v>81</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU9" t="n">
         <v>7.5</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
         <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
         <v>1.25</v>
@@ -2233,10 +2233,10 @@
         <v>3.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>1.36</v>
@@ -2251,7 +2251,7 @@
         <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
@@ -2260,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
@@ -2269,7 +2269,7 @@
         <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2296,16 +2296,16 @@
         <v>34</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN10" t="n">
         <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
@@ -2329,7 +2329,7 @@
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
         <v>3.1</v>
@@ -1857,22 +1857,22 @@
         <v>3.4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -1881,10 +1881,10 @@
         <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
@@ -1902,13 +1902,13 @@
         <v>21</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
@@ -1977,7 +1977,7 @@
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
         <v>151</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H9" t="n">
         <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K9" t="n">
         <v>2.5</v>
@@ -2063,16 +2063,16 @@
         <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2093,22 +2093,22 @@
         <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
         <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2126,7 +2126,7 @@
         <v>7.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
         <v>21</v>
@@ -2135,16 +2135,16 @@
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="n">
         <v>3.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
         <v>7</v>
@@ -2153,13 +2153,13 @@
         <v>26</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
@@ -2215,28 +2215,28 @@
         <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L10" t="n">
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S10" t="n">
         <v>1.36</v>
@@ -2245,13 +2245,13 @@
         <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>11</v>
@@ -2269,7 +2269,7 @@
         <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2284,7 +2284,7 @@
         <v>151</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI10" t="n">
         <v>17</v>
@@ -2299,7 +2299,7 @@
         <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN10" t="n">
         <v>4.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K7" t="n">
         <v>2.63</v>
       </c>
       <c r="L7" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="M7" t="n">
         <v>23</v>
@@ -1699,25 +1699,25 @@
         <v>4.33</v>
       </c>
       <c r="U7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
         <v>51</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
         <v>29</v>
@@ -1735,7 +1735,7 @@
         <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH7" t="n">
         <v>13</v>
@@ -1747,25 +1747,25 @@
         <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
         <v>67</v>
@@ -1777,25 +1777,25 @@
         <v>4.33</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY7" t="n">
         <v>13</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB7" t="n">
         <v>67</v>
@@ -1851,10 +1851,10 @@
         <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1875,10 +1875,10 @@
         <v>1.8</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
         <v>1.8</v>
@@ -1887,7 +1887,7 @@
         <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1929,10 +1929,10 @@
         <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
@@ -1941,7 +1941,7 @@
         <v>4.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1956,7 +1956,7 @@
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1971,7 +1971,7 @@
         <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
         <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
         <v>2.5</v>
@@ -2051,10 +2051,10 @@
         <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S9" t="n">
         <v>1.29</v>
@@ -2063,16 +2063,16 @@
         <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
         <v>9</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2093,7 +2093,7 @@
         <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
@@ -2108,7 +2108,7 @@
         <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2123,7 +2123,7 @@
         <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>17</v>
@@ -2141,10 +2141,10 @@
         <v>3.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
         <v>7</v>
@@ -2159,7 +2159,7 @@
         <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
@@ -2350,6 +2350,552 @@
         <v>81</v>
       </c>
       <c r="BD10" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>tjlFtyLO</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Racing Club Ferrol</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>KAGF9ZlB</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>vaTmiRYq</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD13" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -1657,25 +1657,25 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
-      <c r="H7" t="n">
-        <v>4.75</v>
-      </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="J7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="M7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N7" t="n">
         <v>1.02</v>
@@ -1687,10 +1687,10 @@
         <v>6.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="S7" t="n">
         <v>1.2</v>
@@ -1711,7 +1711,7 @@
         <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
         <v>51</v>
@@ -1720,16 +1720,16 @@
         <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>34</v>
@@ -1747,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL7" t="n">
         <v>11</v>
@@ -1756,10 +1756,10 @@
         <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
@@ -1786,13 +1786,13 @@
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>13</v>
       </c>
       <c r="AZ7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA7" t="n">
         <v>29</v>
@@ -1839,46 +1839,46 @@
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.55</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>3.25</v>
       </c>
-      <c r="I8" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
         <v>3.1</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
         <v>3.25</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U8" t="n">
         <v>1.8</v>
@@ -1890,25 +1890,25 @@
         <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA8" t="n">
         <v>23</v>
       </c>
-      <c r="AA8" t="n">
-        <v>21</v>
-      </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
@@ -1920,16 +1920,16 @@
         <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
         <v>21</v>
@@ -1938,16 +1938,16 @@
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO8" t="n">
         <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
         <v>67</v>
@@ -1956,7 +1956,7 @@
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1965,7 +1965,7 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX8" t="n">
         <v>15</v>
@@ -1974,7 +1974,7 @@
         <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
         <v>67</v>
@@ -2394,7 +2394,7 @@
         <v>4.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
         <v>1.95</v>
@@ -2403,10 +2403,10 @@
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -2469,7 +2469,7 @@
         <v>10</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6PHbTi7C</t>
+          <t>pGU37DCT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,164 +728,164 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lok. Sofia</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.4</v>
       </c>
-      <c r="P2" t="n">
+      <c r="T2" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="U2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.62</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA2" t="n">
         <v>13</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>17</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>8</v>
       </c>
-      <c r="AD2" t="n">
-        <v>7</v>
-      </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="n">
         <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AO2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU2" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>baEjVDx0</t>
+          <t>6PHbTi7C</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Lok. Sofia</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
         <v>5.5</v>
       </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.5</v>
       </c>
-      <c r="L3" t="n">
-        <v>10</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
         <v>7</v>
       </c>
-      <c r="AA3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11</v>
-      </c>
       <c r="AE3" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>34</v>
       </c>
-      <c r="AK3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>15</v>
-      </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB3" t="n">
         <v>351</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8lbdzPhT</t>
+          <t>baEjVDx0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>1.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T4" t="n">
         <v>3</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.5</v>
       </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="n">
         <v>21</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AH4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI4" t="n">
         <v>34</v>
       </c>
-      <c r="AC4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AJ4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>15</v>
       </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AR4" t="n">
         <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
       </c>
       <c r="AS4" t="n">
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BB4" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC4" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>vXlSU2Gj</t>
+          <t>8lbdzPhT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,121 +1284,121 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.1</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
         <v>15</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN5" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W5" t="n">
-        <v>12</v>
-      </c>
-      <c r="X5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="n">
         <v>26</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1407,46 +1407,46 @@
         <v>67</v>
       </c>
       <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD5" t="n">
         <v>126</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AeuJP3G5</t>
+          <t>vXlSU2Gj</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,158 +1456,158 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Club Tijuana</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.9</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T6" t="n">
         <v>3.4</v>
       </c>
-      <c r="I6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
+        <v>12</v>
+      </c>
+      <c r="X6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y6" t="n">
         <v>11</v>
       </c>
-      <c r="X6" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
         <v>15</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AD6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
         <v>41</v>
       </c>
-      <c r="AA6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AG6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI6" t="n">
         <v>9</v>
       </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>15</v>
       </c>
       <c r="AL6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO6" t="n">
         <v>17</v>
       </c>
-      <c r="AM6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AP6" t="n">
         <v>21</v>
       </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
         <v>67</v>
       </c>
-      <c r="AR6" t="n">
-        <v>101</v>
-      </c>
       <c r="AS6" t="n">
-        <v>350</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>34</v>
@@ -1616,19 +1616,19 @@
         <v>51</v>
       </c>
       <c r="BB6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD6" t="n">
         <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>63r2ToHt</t>
+          <t>KlcfeRjd</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.44</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.83</v>
       </c>
-      <c r="M7" t="n">
-        <v>26</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V7" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
         <v>23</v>
       </c>
-      <c r="X7" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>51</v>
-      </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP7" t="n">
         <v>26</v>
       </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM7" t="n">
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX7" t="n">
         <v>17</v>
       </c>
-      <c r="AN7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>7</v>
-      </c>
       <c r="AY7" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2VyBRPog</t>
+          <t>AeuJP3G5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,37 +1830,37 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1881,103 +1881,103 @@
         <v>2.63</v>
       </c>
       <c r="U8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.8</v>
       </c>
-      <c r="V8" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>8.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO8" t="n">
         <v>21</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>34</v>
       </c>
-      <c r="AN8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="AT8" t="n">
         <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
         <v>151</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>67jtezzI</t>
+          <t>63r2ToHt</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,143 +2002,143 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>1.44</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V9" t="n">
         <v>2.5</v>
       </c>
-      <c r="L9" t="n">
-        <v>5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="W9" t="n">
+        <v>23</v>
+      </c>
+      <c r="X9" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE9" t="n">
         <v>15</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W9" t="n">
+      <c r="AF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI9" t="n">
         <v>9</v>
       </c>
-      <c r="X9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AJ9" t="n">
         <v>12</v>
       </c>
-      <c r="AA9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="AK9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN9" t="n">
         <v>8</v>
       </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
         <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU9" t="n">
         <v>7.5</v>
@@ -2147,25 +2147,25 @@
         <v>41</v>
       </c>
       <c r="AW9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX9" t="n">
         <v>7</v>
       </c>
-      <c r="AX9" t="n">
-        <v>26</v>
-      </c>
       <c r="AY9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA9" t="n">
         <v>29</v>
       </c>
-      <c r="AZ9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>81</v>
-      </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BC9" t="n">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CpD7BeKb</t>
+          <t>2VyBRPog</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,161 +2184,161 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X10" t="n">
         <v>13</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
         <v>9</v>
       </c>
-      <c r="X10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>12</v>
-      </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>151</v>
+        <v>8.5</v>
       </c>
       <c r="AH10" t="n">
         <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
         <v>34</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AM10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP10" t="n">
         <v>26</v>
       </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
         <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
         <v>67</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tjlFtyLO</t>
+          <t>67jtezzI</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,160 +2376,160 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="K11" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>1.48</v>
+        <v>2.35</v>
       </c>
       <c r="S11" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="T11" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.2</v>
       </c>
-      <c r="V11" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC11" t="n">
         <v>15</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
         <v>19</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AH11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK11" t="n">
         <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>51</v>
       </c>
       <c r="AL11" t="n">
         <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="n">
         <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR11" t="n">
         <v>41</v>
       </c>
-      <c r="AR11" t="n">
-        <v>67</v>
-      </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX11" t="n">
         <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB11" t="n">
         <v>151</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BC11" t="n">
         <v>351</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>81</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KAGF9ZlB</t>
+          <t>CpD7BeKb</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,157 +2558,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
         <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V12" t="n">
         <v>2.2</v>
       </c>
-      <c r="V12" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
         <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
       </c>
       <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP12" t="n">
         <v>21</v>
       </c>
-      <c r="AF12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI12" t="n">
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY12" t="n">
         <v>23</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AZ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA12" t="n">
         <v>67</v>
       </c>
-      <c r="AS12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA12" t="n">
+      <c r="BB12" t="n">
         <v>151</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>500</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>vaTmiRYq</t>
+          <t>tjlFtyLO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,76 +2740,76 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L13" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S13" t="n">
         <v>1.57</v>
       </c>
-      <c r="P13" t="n">
+      <c r="T13" t="n">
         <v>2.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.2</v>
       </c>
       <c r="U13" t="n">
         <v>2.25</v>
       </c>
       <c r="V13" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W13" t="n">
         <v>5.5</v>
       </c>
       <c r="X13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y13" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>10</v>
-      </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="n">
         <v>41</v>
@@ -2827,46 +2827,46 @@
         <v>81</v>
       </c>
       <c r="AG13" t="n">
-        <v>201</v>
+        <v>9.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AK13" t="n">
         <v>41</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM13" t="n">
-        <v>51</v>
+        <v>1250</v>
       </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
         <v>29</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS13" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU13" t="n">
         <v>9.5</v>
@@ -2875,27 +2875,391 @@
         <v>81</v>
       </c>
       <c r="AW13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY13" t="n">
         <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB13" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
       </c>
       <c r="BD13" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KAGF9ZlB</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>vaTmiRYq</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD15" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -1804,7 +1804,7 @@
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K13" t="n">
         <v>1.95</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>1.11</v>
@@ -2791,22 +2791,22 @@
         <v>2.25</v>
       </c>
       <c r="U13" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y13" t="n">
         <v>9.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
         <v>19</v>
@@ -2818,7 +2818,7 @@
         <v>6</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2827,37 +2827,37 @@
         <v>81</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM13" t="n">
         <v>1250</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="n">
         <v>67</v>
@@ -2869,25 +2869,25 @@
         <v>2.25</v>
       </c>
       <c r="AU13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV13" t="n">
         <v>81</v>
       </c>
       <c r="AW13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AY13" t="n">
         <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB13" t="n">
         <v>351</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J14" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2961,10 +2961,10 @@
         <v>2.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
         <v>1.53</v>
@@ -2973,34 +2973,34 @@
         <v>2.38</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V14" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
         <v>5.5</v>
       </c>
       <c r="X14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
         <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>21</v>
@@ -3009,13 +3009,13 @@
         <v>81</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
@@ -3030,22 +3030,22 @@
         <v>201</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP14" t="n">
         <v>26</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
         <v>67</v>
       </c>
       <c r="AS14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT14" t="n">
         <v>2.38</v>
@@ -3054,19 +3054,19 @@
         <v>9.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY14" t="n">
         <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA14" t="n">
         <v>151</v>
@@ -3113,16 +3113,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
         <v>1.91</v>
@@ -3131,16 +3131,16 @@
         <v>4.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
         <v>2.7</v>
@@ -3158,7 +3158,7 @@
         <v>2.25</v>
       </c>
       <c r="V15" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W15" t="n">
         <v>5.5</v>
@@ -3173,7 +3173,7 @@
         <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
@@ -3212,10 +3212,10 @@
         <v>201</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
         <v>4.2</v>
@@ -759,16 +759,16 @@
         <v>2.05</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
         <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -777,10 +777,10 @@
         <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -825,7 +825,7 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>34</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8lbdzPhT</t>
+          <t>hSxBeE4l</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,155 +1274,155 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L5" t="n">
         <v>3.25</v>
       </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.75</v>
-      </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
         <v>4.33</v>
       </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5</v>
-      </c>
       <c r="AX5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
@@ -1434,10 +1434,10 @@
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vXlSU2Gj</t>
+          <t>8lbdzPhT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,121 +1466,121 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.1</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
         <v>15</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN6" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W6" t="n">
-        <v>12</v>
-      </c>
-      <c r="X6" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
         <v>26</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
@@ -1589,46 +1589,46 @@
         <v>67</v>
       </c>
       <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD6" t="n">
         <v>126</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KlcfeRjd</t>
+          <t>vXlSU2Gj</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Club Tijuana</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T7" t="n">
         <v>3.4</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
+        <v>12</v>
+      </c>
+      <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>5</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="n">
         <v>15</v>
       </c>
-      <c r="AI7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AL7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>34</v>
       </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AeuJP3G5</t>
+          <t>KlcfeRjd</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="H8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.4</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.9</v>
-      </c>
       <c r="J8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN8" t="n">
         <v>4.33</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
         <v>2.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W8" t="n">
-        <v>11</v>
-      </c>
-      <c r="X8" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>63r2ToHt</t>
+          <t>AeuJP3G5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,160 +2012,160 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.44</v>
       </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.2</v>
-      </c>
       <c r="T9" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="n">
         <v>34</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
         <v>9</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ9" t="n">
         <v>67</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AT9" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
         <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="BA9" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="BD9" t="n">
         <v>81</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2VyBRPog</t>
+          <t>63r2ToHt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,160 +2194,160 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
         <v>2.75</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>13</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R10" t="n">
         <v>3.25</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.75</v>
-      </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>12</v>
       </c>
-      <c r="AI10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="AK10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP10" t="n">
         <v>23</v>
       </c>
-      <c r="AK10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
         <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AZ10" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="BA10" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB10" t="n">
         <v>67</v>
       </c>
-      <c r="BB10" t="n">
-        <v>151</v>
-      </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="BD10" t="n">
         <v>81</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>67jtezzI</t>
+          <t>2VyBRPog</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,170 +2366,170 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="J11" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
         <v>15</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>9</v>
-      </c>
-      <c r="X11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y11" t="n">
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AH11" t="n">
         <v>12</v>
       </c>
-      <c r="AA11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AI11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK11" t="n">
         <v>21</v>
       </c>
-      <c r="AC11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH11" t="n">
+      <c r="AL11" t="n">
         <v>34</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
       </c>
       <c r="AM11" t="n">
         <v>151</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AO11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
         <v>8</v>
       </c>
-      <c r="AP11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>41</v>
       </c>
-      <c r="AS11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>81</v>
-      </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
         <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CpD7BeKb</t>
+          <t>67jtezzI</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2558,55 +2558,55 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J12" t="n">
         <v>2.1</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.75</v>
-      </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U12" t="n">
         <v>1.62</v>
@@ -2618,25 +2618,25 @@
         <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2645,73 +2645,73 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI12" t="n">
         <v>17</v>
       </c>
-      <c r="AI12" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="n">
         <v>151</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>21</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AR12" t="n">
         <v>41</v>
       </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
       <c r="AS12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU12" t="n">
         <v>7.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
         <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>tjlFtyLO</t>
+          <t>CpD7BeKb</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,157 +2740,157 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1.75</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.6</v>
-      </c>
       <c r="R13" t="n">
-        <v>1.48</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP13" t="n">
         <v>21</v>
       </c>
-      <c r="AF13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ13" t="n">
+      <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA13" t="n">
         <v>67</v>
       </c>
-      <c r="AK13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>201</v>
-      </c>
       <c r="BB13" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KAGF9ZlB</t>
+          <t>tjlFtyLO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,85 +2922,85 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L14" t="n">
         <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.44</v>
       </c>
-      <c r="P14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.53</v>
       </c>
-      <c r="S14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X14" t="n">
         <v>7</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
         <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="n">
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
         <v>21</v>
@@ -3009,49 +3009,49 @@
         <v>81</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM14" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN14" t="n">
         <v>3.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="n">
         <v>67</v>
       </c>
       <c r="AS14" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
         <v>81</v>
@@ -3069,7 +3069,7 @@
         <v>126</v>
       </c>
       <c r="BA14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB14" t="n">
         <v>351</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>vaTmiRYq</t>
+          <t>KAGF9ZlB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,162 +3104,344 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="K15" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L15" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U15" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X15" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA15" t="n">
         <v>19</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>21</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM15" t="n">
         <v>201</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
         <v>301</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="n">
         <v>81</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AY15" t="n">
         <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BA15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB15" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
       </c>
       <c r="BD15" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>vaTmiRYq</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD16" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -789,22 +789,22 @@
         <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X2" t="n">
         <v>6</v>
-      </c>
-      <c r="X2" t="n">
-        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -816,64 +816,64 @@
         <v>9.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
         <v>2.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX2" t="n">
         <v>41</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA2" t="n">
         <v>201</v>
@@ -1872,7 +1872,7 @@
         <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1986,7 +1986,7 @@
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -1311,10 +1311,10 @@
         <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1872,7 +1872,7 @@
         <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
@@ -762,13 +762,13 @@
         <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -795,7 +795,7 @@
         <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
         <v>6</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -816,7 +816,7 @@
         <v>9.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -828,19 +828,19 @@
         <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6PHbTi7C</t>
+          <t>v3a39ZsH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lok. Sofia</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="J3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>17</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R3" t="n">
         <v>2.4</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO3" t="n">
         <v>6</v>
       </c>
-      <c r="X3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="AP3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR3" t="n">
         <v>34</v>
       </c>
-      <c r="AC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>baEjVDx0</t>
+          <t>2wzE4jYb</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="H4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L4" t="n">
         <v>5.5</v>
       </c>
-      <c r="I4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>2.03</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AN4" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AY4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hSxBeE4l</t>
+          <t>6PHbTi7C</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,65 +1274,65 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Lok. Sofia</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J5" t="n">
         <v>2.4</v>
       </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.5</v>
       </c>
-      <c r="P5" t="n">
+      <c r="T5" t="n">
         <v>2.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.25</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1341,28 +1341,28 @@
         <v>1.67</v>
       </c>
       <c r="W5" t="n">
+        <v>6</v>
+      </c>
+      <c r="X5" t="n">
         <v>7.5</v>
       </c>
-      <c r="X5" t="n">
-        <v>15</v>
-      </c>
       <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
         <v>13</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
         <v>34</v>
       </c>
-      <c r="AA5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1371,46 +1371,46 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP5" t="n">
         <v>23</v>
       </c>
-      <c r="AK5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
+      <c r="AQ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
         <v>201</v>
       </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>301</v>
-      </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>
@@ -1419,34 +1419,34 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8lbdzPhT</t>
+          <t>baEjVDx0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.38</v>
+        <v>1.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.5</v>
       </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="n">
         <v>21</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AH6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI6" t="n">
         <v>34</v>
       </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AJ6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>15</v>
       </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
         <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="BC6" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vXlSU2Gj</t>
+          <t>hSxBeE4l</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.9</v>
       </c>
       <c r="I7" t="n">
         <v>2.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.2</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>19</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN7" t="n">
         <v>5.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
         <v>67</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AW7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC7" t="n">
         <v>126</v>
       </c>
-      <c r="AT7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>401</v>
-      </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KlcfeRjd</t>
+          <t>8lbdzPhT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,47 +1820,47 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
         <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1869,10 +1869,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>
@@ -1881,19 +1881,19 @@
         <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
         <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
         <v>23</v>
@@ -1905,43 +1905,43 @@
         <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN8" t="n">
         <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
@@ -1950,7 +1950,7 @@
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS8" t="n">
         <v>201</v>
@@ -1962,10 +1962,10 @@
         <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
         <v>17</v>
@@ -1980,19 +1980,19 @@
         <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD8" t="n">
         <v>126</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AeuJP3G5</t>
+          <t>vXlSU2Gj</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,158 +2002,158 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Club Tijuana</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.9</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T9" t="n">
         <v>3.4</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="W9" t="n">
+        <v>12</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
         <v>11</v>
       </c>
-      <c r="X9" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
         <v>15</v>
       </c>
-      <c r="Z9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9</v>
-      </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
         <v>9</v>
       </c>
       <c r="AJ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK9" t="n">
         <v>15</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AL9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO9" t="n">
         <v>17</v>
       </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>21</v>
       </c>
-      <c r="AP9" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
         <v>67</v>
       </c>
-      <c r="AR9" t="n">
-        <v>101</v>
-      </c>
       <c r="AS9" t="n">
-        <v>350</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ9" t="n">
         <v>34</v>
@@ -2162,19 +2162,19 @@
         <v>51</v>
       </c>
       <c r="BB9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>401</v>
+      </c>
+      <c r="BD9" t="n">
         <v>151</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>63r2ToHt</t>
+          <t>KlcfeRjd</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.44</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.83</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>13</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V10" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="n">
         <v>23</v>
       </c>
-      <c r="X10" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>51</v>
-      </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP10" t="n">
         <v>26</v>
       </c>
-      <c r="AD10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL10" t="n">
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX10" t="n">
         <v>17</v>
       </c>
-      <c r="AM10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>7</v>
-      </c>
       <c r="AY10" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="BA10" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2VyBRPog</t>
+          <t>AeuJP3G5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2376,31 +2376,31 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -2427,103 +2427,103 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.8</v>
       </c>
-      <c r="V11" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
         <v>9</v>
       </c>
       <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>800</v>
+      </c>
+      <c r="AN11" t="n">
         <v>6</v>
       </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AO11" t="n">
         <v>21</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AP11" t="n">
         <v>34</v>
       </c>
-      <c r="AM11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR11" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="AT11" t="n">
         <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
         <v>151</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>67jtezzI</t>
+          <t>63r2ToHt</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,143 +2548,143 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>1.44</v>
       </c>
       <c r="J12" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V12" t="n">
         <v>2.5</v>
       </c>
-      <c r="L12" t="n">
-        <v>5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="W12" t="n">
+        <v>23</v>
+      </c>
+      <c r="X12" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE12" t="n">
         <v>15</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="AF12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI12" t="n">
         <v>9</v>
       </c>
-      <c r="X12" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z12" t="n">
+      <c r="AJ12" t="n">
         <v>12</v>
       </c>
-      <c r="AA12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD12" t="n">
+      <c r="AK12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN12" t="n">
         <v>8</v>
       </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU12" t="n">
         <v>7.5</v>
@@ -2693,25 +2693,25 @@
         <v>41</v>
       </c>
       <c r="AW12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX12" t="n">
         <v>7</v>
       </c>
-      <c r="AX12" t="n">
-        <v>26</v>
-      </c>
       <c r="AY12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA12" t="n">
         <v>29</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>81</v>
-      </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BC12" t="n">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CpD7BeKb</t>
+          <t>2VyBRPog</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,161 +2730,161 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="J13" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X13" t="n">
         <v>13</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W13" t="n">
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
         <v>9</v>
       </c>
-      <c r="X13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>23</v>
       </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ13" t="n">
+      <c r="AK13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL13" t="n">
         <v>34</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>29</v>
       </c>
       <c r="AM13" t="n">
         <v>151</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
         <v>23</v>
       </c>
       <c r="AZ13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA13" t="n">
         <v>67</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tjlFtyLO</t>
+          <t>67jtezzI</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,160 +2922,160 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
         <v>5.5</v>
       </c>
       <c r="J14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K14" t="n">
         <v>2.5</v>
       </c>
-      <c r="K14" t="n">
-        <v>1.95</v>
-      </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.7</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>2.35</v>
       </c>
       <c r="S14" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="T14" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.38</v>
+        <v>1.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW14" t="n">
         <v>7</v>
       </c>
-      <c r="Y14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AX14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>81</v>
       </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV14" t="n">
+      <c r="BA14" t="n">
         <v>81</v>
       </c>
-      <c r="AW14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>201</v>
-      </c>
       <c r="BB14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC14" t="n">
         <v>351</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>81</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KAGF9ZlB</t>
+          <t>CpD7BeKb</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3104,157 +3104,157 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
         <v>5.5</v>
       </c>
-      <c r="J15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W15" t="n">
-        <v>5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AX15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY15" t="n">
         <v>23</v>
       </c>
-      <c r="AF15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ15" t="n">
+      <c r="AZ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA15" t="n">
         <v>67</v>
       </c>
-      <c r="AK15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ15" t="n">
+      <c r="BB15" t="n">
         <v>151</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>351</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>vaTmiRYq</t>
+          <t>tjlFtyLO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,37 +3286,37 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
         <v>1.53</v>
@@ -3331,31 +3331,31 @@
         <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U16" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W16" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
@@ -3373,31 +3373,31 @@
         <v>81</v>
       </c>
       <c r="AG16" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI16" t="n">
         <v>19</v>
       </c>
-      <c r="AI16" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM16" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
         <v>29</v>
@@ -3406,42 +3406,406 @@
         <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS16" t="n">
         <v>301</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
         <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY16" t="n">
         <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB16" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
       </c>
       <c r="BD16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>KAGF9ZlB</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>vaTmiRYq</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD18" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -953,10 +953,10 @@
         <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.53</v>
@@ -1129,10 +1129,10 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -1705,10 +1705,10 @@
         <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
@@ -1732,19 +1732,19 @@
         <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
@@ -1762,7 +1762,7 @@
         <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ7" t="n">
         <v>81</v>
@@ -1777,25 +1777,25 @@
         <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX7" t="n">
         <v>12</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
         <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
         <v>251</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -941,28 +941,28 @@
         <v>1.73</v>
       </c>
       <c r="K3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L3" t="n">
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="R3" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -971,22 +971,22 @@
         <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
@@ -995,22 +995,22 @@
         <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
         <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="n">
         <v>26</v>
@@ -1025,10 +1025,10 @@
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
         <v>6</v>
@@ -1049,7 +1049,7 @@
         <v>3.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1061,16 +1061,16 @@
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
         <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
@@ -1135,16 +1135,16 @@
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1210,7 +1210,7 @@
         <v>501</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="K3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -959,22 +959,22 @@
         <v>6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
         <v>9.5</v>
@@ -986,10 +986,10 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
         <v>23</v>
@@ -998,46 +998,46 @@
         <v>19</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>34</v>
@@ -1046,31 +1046,31 @@
         <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA3" t="n">
         <v>151</v>
       </c>
-      <c r="BA3" t="n">
-        <v>126</v>
-      </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1126,7 +1126,7 @@
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1135,16 +1135,16 @@
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2.6</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1168,7 +1168,7 @@
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
         <v>19</v>
@@ -1195,7 +1195,7 @@
         <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>51</v>
@@ -1252,7 +1252,7 @@
         <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K3" t="n">
         <v>2.88</v>
       </c>
       <c r="L3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -983,7 +983,7 @@
         <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>8</v>
@@ -998,7 +998,7 @@
         <v>19</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1007,16 +1007,16 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AK3" t="n">
         <v>67</v>
@@ -1049,13 +1049,13 @@
         <v>4</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1117,7 +1117,7 @@
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1126,13 +1126,13 @@
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1195,7 +1195,7 @@
         <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>51</v>
@@ -1219,7 +1219,7 @@
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1252,7 +1252,7 @@
         <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6PHbTi7C</t>
+          <t>fRow7SJA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lok. Sofia</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.4</v>
       </c>
-      <c r="P5" t="n">
+      <c r="S5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="X5" t="n">
         <v>6</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD5" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>201</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
         <v>34</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>201</v>
       </c>
-      <c r="AT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>101</v>
-      </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>baEjVDx0</t>
+          <t>6PHbTi7C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,157 +1466,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Lok. Sofia</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
         <v>5.5</v>
       </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.5</v>
       </c>
-      <c r="L6" t="n">
-        <v>10</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO6" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>34</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>15</v>
-      </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
         <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB6" t="n">
         <v>351</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>501</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hSxBeE4l</t>
+          <t>baEjVDx0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.33</v>
+        <v>1.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>4.75</v>
+        <v>1.73</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>2.75</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
         <v>7</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W7" t="n">
-        <v>9</v>
-      </c>
-      <c r="X7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>41</v>
-      </c>
       <c r="AA7" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AF7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AK7" t="n">
         <v>81</v>
       </c>
-      <c r="AG7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="n">
         <v>201</v>
       </c>
       <c r="AN7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO7" t="n">
         <v>5.5</v>
       </c>
-      <c r="AO7" t="n">
-        <v>23</v>
-      </c>
       <c r="AP7" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>351</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8lbdzPhT</t>
+          <t>hSxBeE4l</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,170 +1820,170 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Club Leon</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>4.33</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.2</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY8" t="n">
         <v>26</v>
       </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
         <v>67</v>
       </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="n">
         <v>126</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vXlSU2Gj</t>
+          <t>8lbdzPhT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,121 +2012,121 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Club Tijuana</t>
+          <t>Club Leon</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.1</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
         <v>15</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN9" t="n">
         <v>4.33</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W9" t="n">
-        <v>12</v>
-      </c>
-      <c r="X9" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
         <v>26</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
       </c>
       <c r="AQ9" t="n">
         <v>51</v>
@@ -2135,46 +2135,46 @@
         <v>67</v>
       </c>
       <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD9" t="n">
         <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KlcfeRjd</t>
+          <t>vXlSU2Gj</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,170 +2184,170 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Club Tijuana</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T10" t="n">
         <v>3.4</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="W10" t="n">
+        <v>12</v>
+      </c>
+      <c r="X10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD10" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK10" t="n">
         <v>15</v>
       </c>
-      <c r="AI10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ10" t="n">
+      <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>34</v>
       </c>
-      <c r="AK10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>51</v>
-      </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AeuJP3G5</t>
+          <t>KlcfeRjd</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.4</v>
       </c>
-      <c r="I11" t="n">
-        <v>1.9</v>
-      </c>
       <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN11" t="n">
         <v>4.33</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="AO11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
         <v>2.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W11" t="n">
-        <v>11</v>
-      </c>
-      <c r="X11" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
         <v>8.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD11" t="n">
         <v>151</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>63r2ToHt</t>
+          <t>AeuJP3G5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2558,160 +2558,160 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.44</v>
       </c>
-      <c r="J12" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
-        <v>13</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.2</v>
-      </c>
       <c r="T12" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA12" t="n">
         <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
         <v>67</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AT12" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
         <v>4</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="BA12" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2VyBRPog</t>
+          <t>63r2ToHt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2740,160 +2740,160 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.75</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R13" t="n">
         <v>3.25</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>8</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.75</v>
-      </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AA13" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="n">
         <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>12</v>
       </c>
-      <c r="AI13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ13" t="n">
+      <c r="AK13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP13" t="n">
         <v>23</v>
       </c>
-      <c r="AK13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR13" t="n">
         <v>67</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB13" t="n">
         <v>67</v>
       </c>
-      <c r="BB13" t="n">
-        <v>151</v>
-      </c>
       <c r="BC13" t="n">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>67jtezzI</t>
+          <t>2VyBRPog</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,170 +2912,170 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="J14" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
         <v>15</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W14" t="n">
-        <v>9</v>
-      </c>
-      <c r="X14" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y14" t="n">
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AH14" t="n">
         <v>12</v>
       </c>
-      <c r="AA14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AI14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK14" t="n">
         <v>21</v>
       </c>
-      <c r="AC14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH14" t="n">
+      <c r="AL14" t="n">
         <v>34</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>41</v>
       </c>
       <c r="AM14" t="n">
         <v>151</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AO14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
         <v>8</v>
       </c>
-      <c r="AP14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AY14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AZ14" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA14" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
         <v>151</v>
       </c>
       <c r="BC14" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CpD7BeKb</t>
+          <t>67jtezzI</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3104,55 +3104,55 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J15" t="n">
         <v>2.1</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.75</v>
-      </c>
       <c r="K15" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="R15" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="S15" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U15" t="n">
         <v>1.62</v>
@@ -3164,25 +3164,25 @@
         <v>9</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -3191,73 +3191,73 @@
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI15" t="n">
         <v>17</v>
       </c>
-      <c r="AI15" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="n">
         <v>151</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>21</v>
       </c>
-      <c r="AQ15" t="n">
-        <v>41</v>
-      </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU15" t="n">
         <v>7.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
         <v>151</v>
       </c>
       <c r="BC15" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tjlFtyLO</t>
+          <t>CpD7BeKb</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3286,157 +3286,157 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T16" t="n">
         <v>3</v>
       </c>
-      <c r="I16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U16" t="n">
-        <v>2.38</v>
+        <v>1.62</v>
       </c>
       <c r="V16" t="n">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="W16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP16" t="n">
         <v>21</v>
       </c>
-      <c r="AF16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL16" t="n">
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA16" t="n">
         <v>67</v>
       </c>
-      <c r="AM16" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>201</v>
-      </c>
       <c r="BB16" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>KAGF9ZlB</t>
+          <t>tjlFtyLO</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3468,49 +3468,49 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K17" t="n">
         <v>1.95</v>
       </c>
       <c r="L17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R17" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S17" t="n">
         <v>1.57</v>
@@ -3519,22 +3519,22 @@
         <v>2.25</v>
       </c>
       <c r="U17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W17" t="n">
         <v>5</v>
       </c>
       <c r="X17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y17" t="n">
         <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
         <v>19</v>
@@ -3543,19 +3543,19 @@
         <v>41</v>
       </c>
       <c r="AC17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD17" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD17" t="n">
-        <v>7</v>
-      </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
         <v>26</v>
@@ -3564,7 +3564,7 @@
         <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK17" t="n">
         <v>51</v>
@@ -3573,19 +3573,19 @@
         <v>67</v>
       </c>
       <c r="AM17" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
         <v>67</v>
@@ -3603,16 +3603,16 @@
         <v>81</v>
       </c>
       <c r="AW17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY17" t="n">
         <v>41</v>
       </c>
       <c r="AZ17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA17" t="n">
         <v>201</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>vaTmiRYq</t>
+          <t>KAGF9ZlB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,31 +3650,31 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.11</v>
@@ -3683,129 +3683,311 @@
         <v>6.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R18" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U18" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V18" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X18" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG18" t="n">
         <v>10</v>
       </c>
-      <c r="Z18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AH18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI18" t="n">
         <v>19</v>
       </c>
-      <c r="AI18" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AK18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM18" t="n">
         <v>201</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
         <v>301</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="n">
         <v>81</v>
       </c>
       <c r="AW18" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AY18" t="n">
         <v>41</v>
       </c>
       <c r="AZ18" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB18" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
       </c>
       <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>vaTmiRYq</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>2.3</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1335,16 +1335,16 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W5" t="n">
         <v>4.33</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1362,7 +1362,7 @@
         <v>6</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1371,10 +1371,10 @@
         <v>151</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>23</v>
@@ -1392,16 +1392,16 @@
         <v>201</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
@@ -1428,10 +1428,10 @@
         <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB5" t="n">
         <v>501</v>
@@ -2356,7 +2356,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KlcfeRjd</t>
+          <t>8QmVgVD5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,179 +2366,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Comerciantes Unidos</t>
+          <t>Correcaminos</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="H11" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>4.15</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="L11" t="n">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="T11" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>350</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO11" t="n">
         <v>21</v>
       </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>301</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>15</v>
-      </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="AR11" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>300</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="AX11" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AeuJP3G5</t>
+          <t>KlcfeRjd</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,179 +2548,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Comerciantes Unidos</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
       <c r="H12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.4</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.9</v>
-      </c>
       <c r="J12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN12" t="n">
         <v>4.33</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="AO12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
         <v>2.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W12" t="n">
-        <v>11</v>
-      </c>
-      <c r="X12" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
         <v>8.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ12" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD12" t="n">
         <v>151</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>63r2ToHt</t>
+          <t>AeuJP3G5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,160 +2740,160 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S13" t="n">
         <v>1.44</v>
       </c>
-      <c r="J13" t="n">
-        <v>5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N13" t="n">
-        <v>13</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.2</v>
-      </c>
       <c r="T13" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="X13" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA13" t="n">
         <v>34</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AI13" t="n">
         <v>9</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
-        <v>101</v>
+        <v>800</v>
       </c>
       <c r="AN13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AQ13" t="n">
         <v>67</v>
       </c>
       <c r="AR13" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS13" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AT13" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
         <v>4</v>
       </c>
       <c r="AX13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY13" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="BA13" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2VyBRPog</t>
+          <t>63r2ToHt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2922,160 +2922,160 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" t="n">
         <v>2.75</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R14" t="n">
         <v>3.25</v>
       </c>
-      <c r="K14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.75</v>
-      </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
         <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>12</v>
       </c>
-      <c r="AI14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ14" t="n">
+      <c r="AK14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP14" t="n">
         <v>23</v>
       </c>
-      <c r="AK14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR14" t="n">
         <v>67</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="BA14" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB14" t="n">
         <v>67</v>
       </c>
-      <c r="BB14" t="n">
-        <v>151</v>
-      </c>
       <c r="BC14" t="n">
-        <v>81</v>
+        <v>450</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3084,7 +3084,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>67jtezzI</t>
+          <t>2VyBRPog</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3094,170 +3094,170 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>2.75</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="J15" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
         <v>15</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>9</v>
-      </c>
-      <c r="X15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y15" t="n">
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AH15" t="n">
         <v>12</v>
       </c>
-      <c r="AA15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB15" t="n">
+      <c r="AI15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK15" t="n">
         <v>21</v>
       </c>
-      <c r="AC15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH15" t="n">
+      <c r="AL15" t="n">
         <v>34</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>41</v>
       </c>
       <c r="AM15" t="n">
         <v>151</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AO15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU15" t="n">
         <v>8</v>
       </c>
-      <c r="AP15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>41</v>
       </c>
-      <c r="AS15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>81</v>
-      </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
         <v>151</v>
       </c>
       <c r="BC15" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3266,7 +3266,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CpD7BeKb</t>
+          <t>67jtezzI</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3286,55 +3286,55 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J16" t="n">
         <v>2.1</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.75</v>
-      </c>
       <c r="K16" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L16" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="S16" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U16" t="n">
         <v>1.62</v>
@@ -3346,25 +3346,25 @@
         <v>9</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
@@ -3373,73 +3373,73 @@
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI16" t="n">
         <v>17</v>
       </c>
-      <c r="AI16" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
         <v>151</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>21</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AR16" t="n">
         <v>41</v>
       </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
       <c r="AS16" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AU16" t="n">
         <v>7.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB16" t="n">
         <v>151</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD16" t="n">
         <v>81</v>
@@ -3448,7 +3448,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tjlFtyLO</t>
+          <t>CpD7BeKb</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3468,157 +3468,157 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T17" t="n">
         <v>3</v>
       </c>
-      <c r="I17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.38</v>
+        <v>1.62</v>
       </c>
       <c r="V17" t="n">
-        <v>1.53</v>
+        <v>2.2</v>
       </c>
       <c r="W17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP17" t="n">
         <v>21</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>29</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
       </c>
       <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA17" t="n">
         <v>67</v>
       </c>
-      <c r="AS17" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>201</v>
-      </c>
       <c r="BB17" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3630,7 +3630,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>KAGF9ZlB</t>
+          <t>tjlFtyLO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3650,49 +3650,49 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
         <v>5.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
         <v>1.95</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R18" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
         <v>1.57</v>
@@ -3701,22 +3701,22 @@
         <v>2.25</v>
       </c>
       <c r="U18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W18" t="n">
         <v>5</v>
       </c>
       <c r="X18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y18" t="n">
         <v>9.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
         <v>19</v>
@@ -3725,19 +3725,19 @@
         <v>41</v>
       </c>
       <c r="AC18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD18" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD18" t="n">
-        <v>7</v>
-      </c>
       <c r="AE18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
         <v>26</v>
@@ -3746,7 +3746,7 @@
         <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK18" t="n">
         <v>51</v>
@@ -3755,19 +3755,19 @@
         <v>67</v>
       </c>
       <c r="AM18" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
         <v>67</v>
@@ -3785,16 +3785,16 @@
         <v>81</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY18" t="n">
         <v>41</v>
       </c>
       <c r="AZ18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA18" t="n">
         <v>201</v>
@@ -3812,7 +3812,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vaTmiRYq</t>
+          <t>KAGF9ZlB</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3832,31 +3832,31 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="K19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.11</v>
@@ -3865,129 +3865,311 @@
         <v>6.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P19" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S19" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U19" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X19" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG19" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI19" t="n">
         <v>19</v>
       </c>
-      <c r="AI19" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AK19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM19" t="n">
         <v>201</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR19" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS19" t="n">
         <v>301</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV19" t="n">
         <v>81</v>
       </c>
       <c r="AW19" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AY19" t="n">
         <v>41</v>
       </c>
       <c r="AZ19" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA19" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB19" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="BC19" t="n">
         <v>81</v>
       </c>
       <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>vaTmiRYq</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>24/10/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD20" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -1296,13 +1296,13 @@
         <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
         <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
@@ -1323,22 +1323,22 @@
         <v>2.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
         <v>4.33</v>
@@ -1350,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>19</v>
@@ -1362,7 +1362,7 @@
         <v>6</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1377,10 +1377,10 @@
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -1311,28 +1311,28 @@
         <v>8</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.57</v>
       </c>
-      <c r="P5" t="n">
+      <c r="T5" t="n">
         <v>2.25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.2</v>
       </c>
       <c r="U5" t="n">
         <v>2.75</v>
@@ -1341,7 +1341,7 @@
         <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
@@ -1356,13 +1356,13 @@
         <v>19</v>
       </c>
       <c r="AB5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
         <v>6</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1377,10 +1377,10 @@
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="n">
         <v>67</v>
@@ -1410,10 +1410,10 @@
         <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
         <v>101</v>
@@ -1428,10 +1428,10 @@
         <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB5" t="n">
         <v>501</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -1293,40 +1293,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
         <v>7</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
         <v>8</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1335,67 +1335,67 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>81</v>
       </c>
       <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
         <v>67</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>81</v>
       </c>
       <c r="AM5" t="n">
         <v>201</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>
@@ -1407,7 +1407,7 @@
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
         <v>2.25</v>
@@ -1419,7 +1419,7 @@
         <v>101</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX5" t="n">
         <v>41</v>
@@ -1431,7 +1431,7 @@
         <v>201</v>
       </c>
       <c r="BA5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB5" t="n">
         <v>501</v>
@@ -2388,19 +2388,19 @@
         <v>3.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I11" t="n">
         <v>1.85</v>
       </c>
       <c r="J11" t="n">
-        <v>4.15</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>2.18</v>
+        <v>2.37</v>
       </c>
       <c r="L11" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -2412,7 +2412,7 @@
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
         <v>1.7</v>
@@ -2421,10 +2421,10 @@
         <v>1.93</v>
       </c>
       <c r="S11" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="U11" t="n">
         <v>1.62</v>
@@ -2433,7 +2433,7 @@
         <v>2.02</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X11" t="n">
         <v>22</v>
@@ -2451,10 +2451,10 @@
         <v>35</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>13.5</v>
@@ -2463,73 +2463,73 @@
         <v>55</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI11" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
         <v>14</v>
       </c>
       <c r="AL11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM11" t="n">
         <v>350</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AR11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB11" t="n">
         <v>120</v>
       </c>
-      <c r="AS11" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>30</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>55</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>175</v>
-      </c>
       <c r="BC11" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD11" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -1299,7 +1299,7 @@
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>2.3</v>
@@ -1311,10 +1311,10 @@
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1323,25 +1323,25 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.5</v>
       </c>
-      <c r="R5" t="n">
+      <c r="V5" t="n">
         <v>1.5</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.44</v>
-      </c>
       <c r="W5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
         <v>6</v>
@@ -1359,7 +1359,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>7.5</v>
@@ -1368,7 +1368,7 @@
         <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
@@ -1380,7 +1380,7 @@
         <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="n">
         <v>51</v>
@@ -1395,10 +1395,10 @@
         <v>3.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>29</v>
@@ -1407,16 +1407,16 @@
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
         <v>7.5</v>
@@ -1425,10 +1425,10 @@
         <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA5" t="n">
         <v>251</v>
@@ -2388,19 +2388,19 @@
         <v>3.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J11" t="n">
         <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -2451,10 +2451,10 @@
         <v>35</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AE11" t="n">
         <v>13.5</v>
@@ -2463,7 +2463,7 @@
         <v>55</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH11" t="n">
         <v>9.5</v>
@@ -2472,16 +2472,16 @@
         <v>8.25</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL11" t="n">
         <v>23</v>
       </c>
       <c r="AM11" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AN11" t="n">
         <v>6.1</v>
@@ -2505,7 +2505,7 @@
         <v>3.55</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AV11" t="n">
         <v>40</v>
@@ -2514,13 +2514,13 @@
         <v>4.05</v>
       </c>
       <c r="AX11" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AY11" t="n">
         <v>13.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA11" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-24.xlsx
@@ -2388,25 +2388,25 @@
         <v>3.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.23</v>
@@ -2427,10 +2427,10 @@
         <v>3.14</v>
       </c>
       <c r="U11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V11" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W11" t="n">
         <v>12.5</v>
@@ -2439,7 +2439,7 @@
         <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
         <v>55</v>
@@ -2448,31 +2448,31 @@
         <v>32</v>
       </c>
       <c r="AB11" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC11" t="n">
         <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AE11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI11" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
         <v>13.5</v>
@@ -2490,7 +2490,7 @@
         <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>80</v>
@@ -2499,19 +2499,19 @@
         <v>90</v>
       </c>
       <c r="AS11" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV11" t="n">
         <v>40</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
         <v>8.25</v>
@@ -2520,7 +2520,7 @@
         <v>13.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA11" t="n">
         <v>40</v>
